--- a/output categories.xlsx
+++ b/output categories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="175">
   <si>
     <t>Category</t>
   </si>
@@ -261,9 +261,6 @@
     <t>Total reserve of electricity</t>
   </si>
   <si>
-    <t>tran_wind_power</t>
-  </si>
-  <si>
     <t>tran_pv_power</t>
   </si>
   <si>
@@ -408,17 +405,161 @@
     <t>Electricity Price</t>
   </si>
   <si>
-    <t>this will be converted to bus bars</t>
+    <t>tran_wind_onshore</t>
+  </si>
+  <si>
+    <t>tran_wind_offshore</t>
+  </si>
+  <si>
+    <t>Total wind power generated by onshore pants</t>
+  </si>
+  <si>
+    <t>Total wind power generated by offshore pants</t>
+  </si>
+  <si>
+    <t>gas_node</t>
+  </si>
+  <si>
+    <t>eh_tran_e_export</t>
+  </si>
+  <si>
+    <t>Total electricity exported to the transmisson network</t>
+  </si>
+  <si>
+    <t>ev_stroage</t>
+  </si>
+  <si>
+    <t>ev_flowin</t>
+  </si>
+  <si>
+    <t>ev_flowout</t>
+  </si>
+  <si>
+    <t>EV , V2G , G2V</t>
+  </si>
+  <si>
+    <t>total electric vehicle storage</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>Grid to vehicle electricity flow</t>
+  </si>
+  <si>
+    <t>Vehicle to grid electricity flow</t>
+  </si>
+  <si>
+    <t>gas_demand</t>
+  </si>
+  <si>
+    <t>electricity_demand</t>
+  </si>
+  <si>
+    <t>total gas demand within energy hubs</t>
+  </si>
+  <si>
+    <t>total elec demand within energy hubs</t>
+  </si>
+  <si>
+    <t>biomass_demand</t>
+  </si>
+  <si>
+    <t>total biomass use within energy hubs</t>
+  </si>
+  <si>
+    <t>hydrogen_demand</t>
+  </si>
+  <si>
+    <t>total hydrogen demand within energy hubs</t>
+  </si>
+  <si>
+    <t>waste_demand</t>
+  </si>
+  <si>
+    <t>total waste used to produce energy  within energy hubs</t>
+  </si>
+  <si>
+    <t>solidfuel_demand</t>
+  </si>
+  <si>
+    <t>total solid fuel demand within energy hubs</t>
+  </si>
+  <si>
+    <t>oil_demand</t>
+  </si>
+  <si>
+    <t>total oil demand within energy hubs</t>
+  </si>
+  <si>
+    <t>gas_demand_heat</t>
+  </si>
+  <si>
+    <t>Gas demand for heating</t>
+  </si>
+  <si>
+    <t>electricity_demand_heat</t>
+  </si>
+  <si>
+    <t>elec demand for heating</t>
+  </si>
+  <si>
+    <t>biomass_demand_heat</t>
+  </si>
+  <si>
+    <t>biomass use for heating</t>
+  </si>
+  <si>
+    <t>oil_demand_heat</t>
+  </si>
+  <si>
+    <t>oil demand for heating</t>
+  </si>
+  <si>
+    <t>hydrogen_demand_heat</t>
+  </si>
+  <si>
+    <t>hydrogen demand for heating</t>
+  </si>
+  <si>
+    <t>waste_demand_heat</t>
+  </si>
+  <si>
+    <t>waste use for heating</t>
+  </si>
+  <si>
+    <t>solidfuel_demand_heat</t>
+  </si>
+  <si>
+    <t>solid fuel use for heating</t>
+  </si>
+  <si>
+    <t>Demand all</t>
+  </si>
+  <si>
+    <t>Demand for heating</t>
+  </si>
+  <si>
+    <t>* this set of files are in the output files folder.</t>
+  </si>
+  <si>
+    <t>but you've got the fractions calculated in sperate files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -431,12 +572,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -451,12 +604,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -743,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +943,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
@@ -800,7 +963,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -818,7 +981,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -836,7 +999,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B5" t="s">
@@ -856,7 +1019,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="9"/>
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -874,7 +1037,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="9"/>
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -892,7 +1055,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="9"/>
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -910,7 +1073,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -928,7 +1091,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="9"/>
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -946,7 +1109,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="9"/>
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -964,7 +1127,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="9"/>
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -982,7 +1145,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="9"/>
       <c r="B13" t="s">
         <v>34</v>
       </c>
@@ -1000,7 +1163,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="9"/>
       <c r="B14" t="s">
         <v>36</v>
       </c>
@@ -1018,7 +1181,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="9"/>
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -1036,7 +1199,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="9"/>
       <c r="B16" t="s">
         <v>40</v>
       </c>
@@ -1053,8 +1216,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
       <c r="B17" t="s">
         <v>42</v>
       </c>
@@ -1071,8 +1234,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
       <c r="B18" t="s">
         <v>44</v>
       </c>
@@ -1089,8 +1252,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B19" t="s">
@@ -1109,8 +1272,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -1127,8 +1290,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
       <c r="B21" t="s">
         <v>51</v>
       </c>
@@ -1145,8 +1308,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
       <c r="B22" t="s">
         <v>53</v>
       </c>
@@ -1163,8 +1326,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -1181,8 +1344,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
       <c r="B24" t="s">
         <v>57</v>
       </c>
@@ -1199,8 +1362,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
       <c r="B25" t="s">
         <v>59</v>
       </c>
@@ -1217,51 +1380,51 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
         <v>108</v>
       </c>
-      <c r="C26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -1272,14 +1435,17 @@
       <c r="F28" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
@@ -1290,14 +1456,17 @@
       <c r="F29" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
         <v>20</v>
@@ -1308,14 +1477,17 @@
       <c r="F30" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
@@ -1326,17 +1498,17 @@
       <c r="F31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
         <v>20</v>
@@ -1347,14 +1519,17 @@
       <c r="F32" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
@@ -1365,14 +1540,17 @@
       <c r="F33" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
@@ -1383,14 +1561,17 @@
       <c r="F34" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
@@ -1401,14 +1582,17 @@
       <c r="F35" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
@@ -1419,14 +1603,17 @@
       <c r="F36" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
         <v>20</v>
@@ -1437,14 +1624,17 @@
       <c r="F37" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
@@ -1455,55 +1645,64 @@
       <c r="F38" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
       <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
         <v>87</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D41" t="s">
         <v>88</v>
-      </c>
-      <c r="D39" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" t="s">
-        <v>89</v>
       </c>
       <c r="E41" t="s">
         <v>5</v>
@@ -1512,16 +1711,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1530,16 +1729,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
@@ -1548,18 +1747,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>107</v>
-      </c>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
         <v>5</v>
@@ -1568,16 +1765,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
         <v>5</v>
@@ -1586,184 +1783,547 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
         <v>103</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" t="s">
         <v>104</v>
       </c>
-      <c r="D46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" t="s">
-        <v>89</v>
-      </c>
-      <c r="E53" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" t="s">
-        <v>126</v>
-      </c>
-      <c r="F54" t="s">
-        <v>65</v>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
+  <mergeCells count="11">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A18"/>
-    <mergeCell ref="A27:A38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A28:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
